--- a/2020/January/All Details/23.01.2020/MC Balance Transfer Jan'2020.xlsx
+++ b/2020/January/All Details/23.01.2020/MC Balance Transfer Jan'2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\January\All Details\23.01.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A78A4C7-0AD9-4964-A693-FF56411CEFA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3412C36-0060-47F7-A995-8EEE68D2FDE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -322,9 +322,6 @@
     <t>20.01.2020</t>
   </si>
   <si>
-    <t>Desh Telecom</t>
-  </si>
-  <si>
     <t>21.01.2020</t>
   </si>
   <si>
@@ -335,6 +332,9 @@
   </si>
   <si>
     <t>22.01.2020</t>
+  </si>
+  <si>
+    <t>23.01.2020</t>
   </si>
 </sst>
 </file>
@@ -1590,9 +1590,9 @@
   <dimension ref="A1:BI231"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="2" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="149" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="149"/>
       <c r="C2" s="149"/>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="22" spans="1:61" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" s="2">
         <v>495190</v>
@@ -3258,7 +3258,7 @@
         <v>11760</v>
       </c>
       <c r="J22" s="64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="19"/>
@@ -3314,7 +3314,7 @@
     </row>
     <row r="23" spans="1:61" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="2">
         <v>138435</v>
@@ -3338,7 +3338,7 @@
         <v>4110</v>
       </c>
       <c r="J23" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="53"/>
@@ -3393,21 +3393,33 @@
       <c r="BI23" s="7"/>
     </row>
     <row r="24" spans="1:61" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="A24" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="2">
+        <v>345740</v>
+      </c>
+      <c r="C24" s="2">
+        <v>432840</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3141</v>
+      </c>
       <c r="E24" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>435981</v>
       </c>
       <c r="F24" s="134"/>
       <c r="G24" s="112"/>
       <c r="H24" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
+      <c r="I24" s="64">
+        <v>2840</v>
+      </c>
+      <c r="J24" s="64" t="s">
+        <v>89</v>
+      </c>
       <c r="K24" s="7"/>
       <c r="L24" s="19"/>
       <c r="M24" s="7"/>
@@ -4008,23 +4020,23 @@
       </c>
       <c r="B33" s="2">
         <f>SUM(B5:B32)</f>
-        <v>5984105</v>
+        <v>6329845</v>
       </c>
       <c r="C33" s="2">
         <f>SUM(C5:C32)</f>
-        <v>5935959</v>
+        <v>6368799</v>
       </c>
       <c r="D33" s="2">
         <f>SUM(D5:D32)</f>
-        <v>21067</v>
+        <v>24208</v>
       </c>
       <c r="E33" s="2">
         <f>SUM(E5:E32)</f>
-        <v>5957026</v>
+        <v>6393007</v>
       </c>
       <c r="F33" s="94">
         <f>B33-E33</f>
-        <v>27079</v>
+        <v>-63162</v>
       </c>
       <c r="G33" s="114"/>
       <c r="H33" s="124"/>
@@ -4582,7 +4594,7 @@
         <v>12100</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="134"/>
@@ -4789,7 +4801,7 @@
       <c r="A44" s="73"/>
       <c r="B44" s="74"/>
       <c r="C44" s="75">
-        <v>3055</v>
+        <v>6494</v>
       </c>
       <c r="D44" s="76"/>
       <c r="E44" s="3"/>
@@ -4915,7 +4927,7 @@
       </c>
       <c r="B46" s="102"/>
       <c r="C46" s="103">
-        <v>271144</v>
+        <v>171144</v>
       </c>
       <c r="D46" s="102" t="s">
         <v>21</v>
@@ -5177,10 +5189,10 @@
       </c>
       <c r="B50" s="43"/>
       <c r="C50" s="98">
-        <v>99030</v>
+        <v>98950</v>
       </c>
       <c r="D50" s="102" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="12"/>
@@ -5247,7 +5259,7 @@
         <v>354835</v>
       </c>
       <c r="D51" s="99" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="43"/>
@@ -5313,10 +5325,10 @@
       </c>
       <c r="B52" s="43"/>
       <c r="C52" s="98">
-        <v>194365</v>
+        <v>193555</v>
       </c>
       <c r="D52" s="102" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="12"/>
@@ -5382,10 +5394,10 @@
       </c>
       <c r="B53" s="97"/>
       <c r="C53" s="106">
-        <v>20000</v>
+        <v>54000</v>
       </c>
       <c r="D53" s="99" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="64"/>
@@ -5454,7 +5466,7 @@
         <v>14090</v>
       </c>
       <c r="D54" s="102" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="12"/>
@@ -5585,7 +5597,7 @@
       </c>
       <c r="B56" s="43"/>
       <c r="C56" s="98">
-        <v>57190</v>
+        <v>32000</v>
       </c>
       <c r="D56" s="97" t="s">
         <v>89</v>
@@ -5654,7 +5666,7 @@
       </c>
       <c r="B57" s="43"/>
       <c r="C57" s="98">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="D57" s="107" t="s">
         <v>83</v>
@@ -5723,10 +5735,10 @@
       </c>
       <c r="B58" s="43"/>
       <c r="C58" s="98">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="D58" s="107" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="64"/>
@@ -5856,16 +5868,10 @@
       <c r="BI59" s="7"/>
     </row>
     <row r="60" spans="1:61" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="105" t="s">
-        <v>85</v>
-      </c>
+      <c r="A60" s="105"/>
       <c r="B60" s="43"/>
-      <c r="C60" s="98">
-        <v>13000</v>
-      </c>
-      <c r="D60" s="99" t="s">
-        <v>89</v>
-      </c>
+      <c r="C60" s="98"/>
+      <c r="D60" s="99"/>
       <c r="E60" s="3"/>
       <c r="F60" s="43"/>
       <c r="G60" s="12"/>
@@ -5926,14 +5932,14 @@
     </row>
     <row r="61" spans="1:61" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="100" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B61" s="43"/>
       <c r="C61" s="98">
-        <v>6600</v>
+        <v>10500</v>
       </c>
       <c r="D61" s="99" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="19"/>
@@ -8567,7 +8573,7 @@
       <c r="B98" s="154"/>
       <c r="C98" s="45">
         <f>SUM(C37:C97)</f>
-        <v>1505289</v>
+        <v>1415048</v>
       </c>
       <c r="D98" s="41"/>
       <c r="F98" s="23"/>
@@ -8702,7 +8708,7 @@
       <c r="B100" s="152"/>
       <c r="C100" s="42">
         <f>C98+L121</f>
-        <v>1505289</v>
+        <v>1415048</v>
       </c>
       <c r="D100" s="26"/>
       <c r="F100" s="24"/>
